--- a/public/UploadExample/staff_form.xlsx
+++ b/public/UploadExample/staff_form.xlsx
@@ -5,30 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kingsglaive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natth\Downloads\project_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D3F2B-F4E6-4682-8E19-8C2A4EF3569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0886FD-D83C-4375-91A2-FAA2BF003791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2970" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Form" sheetId="2" r:id="rId1"/>
-    <sheet name="Prefix (TH)" sheetId="3" r:id="rId2"/>
-    <sheet name="Prefix (EN)" sheetId="4" r:id="rId3"/>
-    <sheet name="isActive" sheetId="5" r:id="rId4"/>
+    <sheet name="Prefix" sheetId="3" r:id="rId2"/>
+    <sheet name="isActive" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t xml:space="preserve">แบบ Form สร้าง Staff </t>
   </si>
@@ -51,64 +61,532 @@
     <t>Dr.</t>
   </si>
   <si>
-    <t>ศาสตราจารย์</t>
-  </si>
-  <si>
-    <t>รองศาสตราจารย์</t>
-  </si>
-  <si>
-    <t>ผู้ช่วยศาสตราจารย์</t>
-  </si>
-  <si>
     <t>ชื่อ-นามสกุล (TH)</t>
   </si>
   <si>
     <t>ชื่อ-นามสกุล (EN)</t>
   </si>
   <si>
-    <t>ธนวินท์</t>
-  </si>
-  <si>
-    <t>สายทอง</t>
-  </si>
-  <si>
-    <t>Thanawin</t>
-  </si>
-  <si>
-    <t>Saithong</t>
-  </si>
-  <si>
-    <t>nuttpol_saithong@cmu.ac.th</t>
-  </si>
-  <si>
-    <t>nono@cmu.ac.th</t>
-  </si>
-  <si>
-    <t>โนโน่</t>
-  </si>
-  <si>
     <t>IsResigned</t>
   </si>
   <si>
-    <t>Nonoss</t>
+    <t>รศ.ดร.</t>
+  </si>
+  <si>
+    <t>สันติ</t>
+  </si>
+  <si>
+    <t>พิทักษ์กิจนุกูร</t>
+  </si>
+  <si>
+    <t>Santi</t>
+  </si>
+  <si>
+    <t>Phithakkitnukoon</t>
+  </si>
+  <si>
+    <t>santi.p@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>karn.patanukhom@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Karn</t>
+  </si>
+  <si>
+    <t>Patanukhom</t>
+  </si>
+  <si>
+    <t>กานต์</t>
+  </si>
+  <si>
+    <t>ปทานุคม</t>
+  </si>
+  <si>
+    <t>นวดนย์</t>
+  </si>
+  <si>
+    <t>คุณเลิศกิจ</t>
+  </si>
+  <si>
+    <t>Navadon</t>
+  </si>
+  <si>
+    <t>Khunlertgit</t>
+  </si>
+  <si>
+    <t>navadon.k@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ปฏิเวธ</t>
+  </si>
+  <si>
+    <t>วุฒิสารวัฒนา</t>
+  </si>
+  <si>
+    <t>patiwet.w@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Patiwet</t>
+  </si>
+  <si>
+    <t>Wuttisarnwattana</t>
+  </si>
+  <si>
+    <t>Trasapong</t>
+  </si>
+  <si>
+    <t>Thaiupathump</t>
+  </si>
+  <si>
+    <t>trasapong.t@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ตรัสพงศ์</t>
+  </si>
+  <si>
+    <t>ไทยอุปถัมภ์</t>
+  </si>
+  <si>
+    <t>อ.ดร.</t>
+  </si>
+  <si>
+    <t>ผศ.</t>
+  </si>
+  <si>
+    <t>ผศ.ดร.</t>
+  </si>
+  <si>
+    <t>Assoc. Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Asst. Prof.</t>
+  </si>
+  <si>
+    <t>Asst. Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>นาย</t>
+  </si>
+  <si>
+    <t>นางสาว</t>
+  </si>
+  <si>
+    <t>นาง</t>
+  </si>
+  <si>
+    <t>ศศิน</t>
+  </si>
+  <si>
+    <t>จันทร์พวงทอง</t>
+  </si>
+  <si>
+    <t>Sasin</t>
+  </si>
+  <si>
+    <t>Janpuangtong</t>
+  </si>
+  <si>
+    <t>sasin.ja@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>อัญญา</t>
+  </si>
+  <si>
+    <t>อาภาวัชรุตม์ วีระประพันธ์</t>
+  </si>
+  <si>
+    <t>Anya</t>
+  </si>
+  <si>
+    <t>anya.a@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Weeraprapan Apavatjrut</t>
+  </si>
+  <si>
+    <t>Juggapong</t>
+  </si>
+  <si>
+    <t>Natwichai</t>
+  </si>
+  <si>
+    <t>juggapong.n@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>จักรพงศ์</t>
+  </si>
+  <si>
+    <t>นาทวิชัย</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Cosh</t>
+  </si>
+  <si>
+    <t>kenneth.c@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>นริศรา</t>
+  </si>
+  <si>
+    <t>เอี่ยมคณิตชาติ</t>
+  </si>
+  <si>
+    <t>Narissara</t>
+  </si>
+  <si>
+    <t>Eiamkanitchat</t>
+  </si>
+  <si>
+    <t>narissara.e@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Sakgasit</t>
+  </si>
+  <si>
+    <t>Ramingwong</t>
+  </si>
+  <si>
+    <t>sakgasit.ramingwong@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ศักดิ์กษิต</t>
+  </si>
+  <si>
+    <t>ระมิงค์วงศ์​</t>
+  </si>
+  <si>
+    <t>สรรพวรรธน์</t>
+  </si>
+  <si>
+    <t>กันตะบุตร</t>
+  </si>
+  <si>
+    <t>sanpawat.k@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Sanpawat</t>
+  </si>
+  <si>
+    <t>Kantabutra</t>
+  </si>
+  <si>
+    <t>ศันสนีย์</t>
+  </si>
+  <si>
+    <t>เอื้อพันธ์วิริยะกุล</t>
+  </si>
+  <si>
+    <t>sansanee.a@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Sansanee</t>
+  </si>
+  <si>
+    <t>Auephanwiriyakul</t>
+  </si>
+  <si>
+    <t>โพธิกานนท์</t>
+  </si>
+  <si>
+    <t>โดม</t>
+  </si>
+  <si>
+    <t>Dome</t>
+  </si>
+  <si>
+    <t>Potikanond</t>
+  </si>
+  <si>
+    <t>dome.potikanond@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>กำพล</t>
+  </si>
+  <si>
+    <t>วรดิษฐ์</t>
+  </si>
+  <si>
+    <t>Kampol</t>
+  </si>
+  <si>
+    <t>Woradit</t>
+  </si>
+  <si>
+    <t>kampol.w@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>เกษมสิทธิ์</t>
+  </si>
+  <si>
+    <t>ตียพันธ์</t>
+  </si>
+  <si>
+    <t>Kasemsit</t>
+  </si>
+  <si>
+    <t>Teeyapan</t>
+  </si>
+  <si>
+    <t>kasemsit.t@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ลัชนา</t>
+  </si>
+  <si>
+    <t>ระมิงค์วงศ์</t>
+  </si>
+  <si>
+    <t>lachana.ramingwong@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Lachana</t>
+  </si>
+  <si>
+    <t>ณัฐนันท์</t>
+  </si>
+  <si>
+    <t>พรหมสุข</t>
+  </si>
+  <si>
+    <t>Natthanan</t>
+  </si>
+  <si>
+    <t>Promsuk</t>
+  </si>
+  <si>
+    <t>natthanan.p@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ภาสกร</t>
+  </si>
+  <si>
+    <t>แช่มประเสริฐ</t>
+  </si>
+  <si>
+    <t>Paskorn</t>
+  </si>
+  <si>
+    <t>Champrasert</t>
+  </si>
+  <si>
+    <t>paskorn.c@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>พฤษภ์</t>
+  </si>
+  <si>
+    <t>บุญมา</t>
+  </si>
+  <si>
+    <t>Pruet</t>
+  </si>
+  <si>
+    <t>Boonma</t>
+  </si>
+  <si>
+    <t>pruet.b@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ธนาทิพย์</t>
+  </si>
+  <si>
+    <t>จันทร์คง</t>
+  </si>
+  <si>
+    <t>Thanatip</t>
+  </si>
+  <si>
+    <t>Chankong</t>
+  </si>
+  <si>
+    <t>thanatip.ch@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>สมจิต</t>
+  </si>
+  <si>
+    <t>ยุทธพงษ์</t>
+  </si>
+  <si>
+    <t>Yuthapong</t>
+  </si>
+  <si>
+    <t>Somchit</t>
+  </si>
+  <si>
+    <t>yuthapong.somchit@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>อานันท์</t>
+  </si>
+  <si>
+    <t>สีห์พิทักษ์เกียรติ</t>
+  </si>
+  <si>
+    <t>Arnan</t>
+  </si>
+  <si>
+    <t>Sipitakiat</t>
+  </si>
+  <si>
+    <t>arnan.s@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ชินวัตร</t>
+  </si>
+  <si>
+    <t>อิศราดิสัยกุล</t>
+  </si>
+  <si>
+    <t>Chinawat</t>
+  </si>
+  <si>
+    <t>Isradisaikul</t>
+  </si>
+  <si>
+    <t>chinawat.i@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>เจนจิรา</t>
+  </si>
+  <si>
+    <t>ใจมั่ง</t>
+  </si>
+  <si>
+    <t>Jenjira</t>
+  </si>
+  <si>
+    <t>Jaimunk</t>
+  </si>
+  <si>
+    <t>jenjira.j@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>นษิ</t>
+  </si>
+  <si>
+    <t>ตันติธารานุกุล</t>
+  </si>
+  <si>
+    <t>Nasi</t>
+  </si>
+  <si>
+    <t>Tantitharanukul</t>
+  </si>
+  <si>
+    <t>nasi.t@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>นพรุจ</t>
+  </si>
+  <si>
+    <t>ซื่อตรง</t>
+  </si>
+  <si>
+    <t>อ.</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>nopparuj.s@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>Nopparuj</t>
+  </si>
+  <si>
+    <t>Suetrong</t>
+  </si>
+  <si>
+    <t>ศ.ดร.</t>
+  </si>
+  <si>
+    <t>Prof. Dr.</t>
+  </si>
+  <si>
+    <t>นิพนธ์</t>
+  </si>
+  <si>
+    <t>ธีรอำพน</t>
+  </si>
+  <si>
+    <t>Nipon</t>
+  </si>
+  <si>
+    <t>Theera-Umpon</t>
+  </si>
+  <si>
+    <t>nipon.t@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>ปวรุตม์</t>
+  </si>
+  <si>
+    <t>จงชาญสิทโธ</t>
+  </si>
+  <si>
+    <t>Pawarut</t>
+  </si>
+  <si>
+    <t>Jongchansitto</t>
+  </si>
+  <si>
+    <t>pawarut.j@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>สุพฤทธิ์</t>
+  </si>
+  <si>
+    <t>ตั้งพฤทธิ์กุล</t>
+  </si>
+  <si>
+    <t>Suparit</t>
+  </si>
+  <si>
+    <t>Tangparitkul</t>
+  </si>
+  <si>
+    <t>suparit.t@cmu.ac.th</t>
+  </si>
+  <si>
+    <t>กนก</t>
+  </si>
+  <si>
+    <t>ก๋องหล้า</t>
+  </si>
+  <si>
+    <t>Kanok</t>
+  </si>
+  <si>
+    <t>Konglar</t>
+  </si>
+  <si>
+    <t>kanok.k@cmu.ac.th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -122,7 +600,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,6 +693,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,12 +703,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="ดี" xfId="1" builtinId="26"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,107 +985,2596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25F84EC-1A8D-49AA-AF81-31F262238A49}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D18" activeCellId="1" sqref="H33 D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="38.375" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IFERROR(VLOOKUP(A3, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IFERROR(VLOOKUP(A4, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IFERROR(VLOOKUP(A5, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IFERROR(VLOOKUP(A6, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IFERROR(VLOOKUP(A7, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(VLOOKUP(A8, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Dr.</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IFERROR(VLOOKUP(A9, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IFERROR(VLOOKUP(A10, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IFERROR(VLOOKUP(A11, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IFERROR(VLOOKUP(A12, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IFERROR(VLOOKUP(A13, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IFERROR(VLOOKUP(A14, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IFERROR(VLOOKUP(A15, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IFERROR(VLOOKUP(A16, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof.</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IFERROR(VLOOKUP(A17, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IFERROR(VLOOKUP(A18, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IFERROR(VLOOKUP(A19, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IFERROR(VLOOKUP(A20, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IFERROR(VLOOKUP(A21, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IFERROR(VLOOKUP(A22, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IFERROR(VLOOKUP(A23, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IFERROR(VLOOKUP(A24, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Asst. Prof. Dr.</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IFERROR(VLOOKUP(A25, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Dr.</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IFERROR(VLOOKUP(A26, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Dr.</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IFERROR(VLOOKUP(A27, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Dr.</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IFERROR(VLOOKUP(A28, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Dr.</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IFERROR(VLOOKUP(A29, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Lecturer</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IFERROR(VLOOKUP(A30, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Prof. Dr.</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IFERROR(VLOOKUP(A31, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IFERROR(VLOOKUP(A32, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Assoc. Prof. Dr.</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IFERROR(VLOOKUP(A33, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v>Lecturer</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="str">
+        <f>IFERROR(VLOOKUP(A34, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="str">
+        <f>IFERROR(VLOOKUP(A35, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="str">
+        <f>IFERROR(VLOOKUP(A36, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="str">
+        <f>IFERROR(VLOOKUP(A37, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="str">
+        <f>IFERROR(VLOOKUP(A38, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="str">
+        <f>IFERROR(VLOOKUP(A39, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="str">
+        <f>IFERROR(VLOOKUP(A40, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="str">
+        <f>IFERROR(VLOOKUP(A41, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="str">
+        <f>IFERROR(VLOOKUP(A42, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="str">
+        <f>IFERROR(VLOOKUP(A43, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="str">
+        <f>IFERROR(VLOOKUP(A44, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="str">
+        <f>IFERROR(VLOOKUP(A45, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="str">
+        <f>IFERROR(VLOOKUP(A46, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="str">
+        <f>IFERROR(VLOOKUP(A47, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="str">
+        <f>IFERROR(VLOOKUP(A48, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="str">
+        <f>IFERROR(VLOOKUP(A49, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="str">
+        <f>IFERROR(VLOOKUP(A50, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="str">
+        <f>IFERROR(VLOOKUP(A51, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="str">
+        <f>IFERROR(VLOOKUP(A52, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="str">
+        <f>IFERROR(VLOOKUP(A53, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="str">
+        <f>IFERROR(VLOOKUP(A54, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="str">
+        <f>IFERROR(VLOOKUP(A55, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="str">
+        <f>IFERROR(VLOOKUP(A56, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="str">
+        <f>IFERROR(VLOOKUP(A57, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="str">
+        <f>IFERROR(VLOOKUP(A58, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="str">
+        <f>IFERROR(VLOOKUP(A59, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="str">
+        <f>IFERROR(VLOOKUP(A60, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="str">
+        <f>IFERROR(VLOOKUP(A61, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="str">
+        <f>IFERROR(VLOOKUP(A62, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="str">
+        <f>IFERROR(VLOOKUP(A63, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="str">
+        <f>IFERROR(VLOOKUP(A64, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="str">
+        <f>IFERROR(VLOOKUP(A65, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="str">
+        <f>IFERROR(VLOOKUP(A66, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="str">
+        <f>IFERROR(VLOOKUP(A67, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="str">
+        <f>IFERROR(VLOOKUP(A68, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="str">
+        <f>IFERROR(VLOOKUP(A69, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="str">
+        <f>IFERROR(VLOOKUP(A70, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="str">
+        <f>IFERROR(VLOOKUP(A71, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="str">
+        <f>IFERROR(VLOOKUP(A72, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="str">
+        <f>IFERROR(VLOOKUP(A73, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="str">
+        <f>IFERROR(VLOOKUP(A74, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="str">
+        <f>IFERROR(VLOOKUP(A75, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="str">
+        <f>IFERROR(VLOOKUP(A76, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="str">
+        <f>IFERROR(VLOOKUP(A77, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="str">
+        <f>IFERROR(VLOOKUP(A78, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="str">
+        <f>IFERROR(VLOOKUP(A79, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="str">
+        <f>IFERROR(VLOOKUP(A80, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="str">
+        <f>IFERROR(VLOOKUP(A81, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="str">
+        <f>IFERROR(VLOOKUP(A82, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="str">
+        <f>IFERROR(VLOOKUP(A83, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="str">
+        <f>IFERROR(VLOOKUP(A84, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="str">
+        <f>IFERROR(VLOOKUP(A85, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="str">
+        <f>IFERROR(VLOOKUP(A86, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="str">
+        <f>IFERROR(VLOOKUP(A87, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="str">
+        <f>IFERROR(VLOOKUP(A88, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="str">
+        <f>IFERROR(VLOOKUP(A89, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="str">
+        <f>IFERROR(VLOOKUP(A90, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="str">
+        <f>IFERROR(VLOOKUP(A91, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="str">
+        <f>IFERROR(VLOOKUP(A92, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="str">
+        <f>IFERROR(VLOOKUP(A93, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="str">
+        <f>IFERROR(VLOOKUP(A94, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="str">
+        <f>IFERROR(VLOOKUP(A95, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="str">
+        <f>IFERROR(VLOOKUP(A96, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="str">
+        <f>IFERROR(VLOOKUP(A97, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="str">
+        <f>IFERROR(VLOOKUP(A98, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="str">
+        <f>IFERROR(VLOOKUP(A99, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="str">
+        <f>IFERROR(VLOOKUP(A100, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="str">
+        <f>IFERROR(VLOOKUP(A101, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="str">
+        <f>IFERROR(VLOOKUP(A102, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="str">
+        <f>IFERROR(VLOOKUP(A103, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="str">
+        <f>IFERROR(VLOOKUP(A104, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="str">
+        <f>IFERROR(VLOOKUP(A105, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="str">
+        <f>IFERROR(VLOOKUP(A106, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="str">
+        <f>IFERROR(VLOOKUP(A107, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="str">
+        <f>IFERROR(VLOOKUP(A108, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="str">
+        <f>IFERROR(VLOOKUP(A109, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="str">
+        <f>IFERROR(VLOOKUP(A110, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="str">
+        <f>IFERROR(VLOOKUP(A111, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="str">
+        <f>IFERROR(VLOOKUP(A112, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="str">
+        <f>IFERROR(VLOOKUP(A113, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="str">
+        <f>IFERROR(VLOOKUP(A114, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="str">
+        <f>IFERROR(VLOOKUP(A115, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="str">
+        <f>IFERROR(VLOOKUP(A116, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="str">
+        <f>IFERROR(VLOOKUP(A117, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="str">
+        <f>IFERROR(VLOOKUP(A118, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="str">
+        <f>IFERROR(VLOOKUP(A119, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="str">
+        <f>IFERROR(VLOOKUP(A120, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="str">
+        <f>IFERROR(VLOOKUP(A121, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="str">
+        <f>IFERROR(VLOOKUP(A122, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="str">
+        <f>IFERROR(VLOOKUP(A123, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="str">
+        <f>IFERROR(VLOOKUP(A124, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="str">
+        <f>IFERROR(VLOOKUP(A125, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="str">
+        <f>IFERROR(VLOOKUP(A126, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="str">
+        <f>IFERROR(VLOOKUP(A127, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="str">
+        <f>IFERROR(VLOOKUP(A128, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="str">
+        <f>IFERROR(VLOOKUP(A129, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="str">
+        <f>IFERROR(VLOOKUP(A130, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="str">
+        <f>IFERROR(VLOOKUP(A131, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="str">
+        <f>IFERROR(VLOOKUP(A132, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="str">
+        <f>IFERROR(VLOOKUP(A133, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="str">
+        <f>IFERROR(VLOOKUP(A134, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="str">
+        <f>IFERROR(VLOOKUP(A135, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="str">
+        <f>IFERROR(VLOOKUP(A136, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="str">
+        <f>IFERROR(VLOOKUP(A137, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="str">
+        <f>IFERROR(VLOOKUP(A138, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="str">
+        <f>IFERROR(VLOOKUP(A139, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="str">
+        <f>IFERROR(VLOOKUP(A140, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="str">
+        <f>IFERROR(VLOOKUP(A141, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="str">
+        <f>IFERROR(VLOOKUP(A142, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="str">
+        <f>IFERROR(VLOOKUP(A143, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="str">
+        <f>IFERROR(VLOOKUP(A144, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="str">
+        <f>IFERROR(VLOOKUP(A145, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="str">
+        <f>IFERROR(VLOOKUP(A146, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="str">
+        <f>IFERROR(VLOOKUP(A147, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="str">
+        <f>IFERROR(VLOOKUP(A148, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="str">
+        <f>IFERROR(VLOOKUP(A149, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="str">
+        <f>IFERROR(VLOOKUP(A150, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="str">
+        <f>IFERROR(VLOOKUP(A151, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="str">
+        <f>IFERROR(VLOOKUP(A152, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="str">
+        <f>IFERROR(VLOOKUP(A153, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="str">
+        <f>IFERROR(VLOOKUP(A154, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="str">
+        <f>IFERROR(VLOOKUP(A155, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="str">
+        <f>IFERROR(VLOOKUP(A156, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="str">
+        <f>IFERROR(VLOOKUP(A157, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="str">
+        <f>IFERROR(VLOOKUP(A158, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="str">
+        <f>IFERROR(VLOOKUP(A159, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="str">
+        <f>IFERROR(VLOOKUP(A160, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="str">
+        <f>IFERROR(VLOOKUP(A161, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="str">
+        <f>IFERROR(VLOOKUP(A162, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="str">
+        <f>IFERROR(VLOOKUP(A163, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="str">
+        <f>IFERROR(VLOOKUP(A164, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="str">
+        <f>IFERROR(VLOOKUP(A165, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="str">
+        <f>IFERROR(VLOOKUP(A166, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="str">
+        <f>IFERROR(VLOOKUP(A167, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="str">
+        <f>IFERROR(VLOOKUP(A168, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="str">
+        <f>IFERROR(VLOOKUP(A169, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="str">
+        <f>IFERROR(VLOOKUP(A170, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="str">
+        <f>IFERROR(VLOOKUP(A171, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="str">
+        <f>IFERROR(VLOOKUP(A172, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="str">
+        <f>IFERROR(VLOOKUP(A173, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="str">
+        <f>IFERROR(VLOOKUP(A174, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="str">
+        <f>IFERROR(VLOOKUP(A175, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="str">
+        <f>IFERROR(VLOOKUP(A176, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="str">
+        <f>IFERROR(VLOOKUP(A177, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="str">
+        <f>IFERROR(VLOOKUP(A178, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="str">
+        <f>IFERROR(VLOOKUP(A179, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="str">
+        <f>IFERROR(VLOOKUP(A180, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="str">
+        <f>IFERROR(VLOOKUP(A181, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="str">
+        <f>IFERROR(VLOOKUP(A182, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="str">
+        <f>IFERROR(VLOOKUP(A183, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="str">
+        <f>IFERROR(VLOOKUP(A184, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="str">
+        <f>IFERROR(VLOOKUP(A185, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="str">
+        <f>IFERROR(VLOOKUP(A186, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="str">
+        <f>IFERROR(VLOOKUP(A187, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="str">
+        <f>IFERROR(VLOOKUP(A188, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="str">
+        <f>IFERROR(VLOOKUP(A189, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="str">
+        <f>IFERROR(VLOOKUP(A190, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="str">
+        <f>IFERROR(VLOOKUP(A191, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="str">
+        <f>IFERROR(VLOOKUP(A192, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="str">
+        <f>IFERROR(VLOOKUP(A193, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="str">
+        <f>IFERROR(VLOOKUP(A194, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="str">
+        <f>IFERROR(VLOOKUP(A195, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="str">
+        <f>IFERROR(VLOOKUP(A196, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="str">
+        <f>IFERROR(VLOOKUP(A197, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="str">
+        <f>IFERROR(VLOOKUP(A198, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="str">
+        <f>IFERROR(VLOOKUP(A199, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="str">
+        <f>IFERROR(VLOOKUP(A200, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="str">
+        <f>IFERROR(VLOOKUP(A201, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="str">
+        <f>IFERROR(VLOOKUP(A202, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="str">
+        <f>IFERROR(VLOOKUP(A203, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="str">
+        <f>IFERROR(VLOOKUP(A204, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="str">
+        <f>IFERROR(VLOOKUP(A205, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="str">
+        <f>IFERROR(VLOOKUP(A206, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="str">
+        <f>IFERROR(VLOOKUP(A207, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="str">
+        <f>IFERROR(VLOOKUP(A208, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="str">
+        <f>IFERROR(VLOOKUP(A209, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="str">
+        <f>IFERROR(VLOOKUP(A210, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="str">
+        <f>IFERROR(VLOOKUP(A211, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="str">
+        <f>IFERROR(VLOOKUP(A212, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="str">
+        <f>IFERROR(VLOOKUP(A213, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="str">
+        <f>IFERROR(VLOOKUP(A214, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="str">
+        <f>IFERROR(VLOOKUP(A215, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="str">
+        <f>IFERROR(VLOOKUP(A216, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="str">
+        <f>IFERROR(VLOOKUP(A217, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="str">
+        <f>IFERROR(VLOOKUP(A218, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="str">
+        <f>IFERROR(VLOOKUP(A219, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="str">
+        <f>IFERROR(VLOOKUP(A220, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="str">
+        <f>IFERROR(VLOOKUP(A221, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="str">
+        <f>IFERROR(VLOOKUP(A222, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="str">
+        <f>IFERROR(VLOOKUP(A223, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="str">
+        <f>IFERROR(VLOOKUP(A224, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="str">
+        <f>IFERROR(VLOOKUP(A225, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="str">
+        <f>IFERROR(VLOOKUP(A226, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="str">
+        <f>IFERROR(VLOOKUP(A227, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="str">
+        <f>IFERROR(VLOOKUP(A228, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="str">
+        <f>IFERROR(VLOOKUP(A229, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="str">
+        <f>IFERROR(VLOOKUP(A230, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="str">
+        <f>IFERROR(VLOOKUP(A231, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="str">
+        <f>IFERROR(VLOOKUP(A232, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="str">
+        <f>IFERROR(VLOOKUP(A233, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="str">
+        <f>IFERROR(VLOOKUP(A234, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="str">
+        <f>IFERROR(VLOOKUP(A235, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="str">
+        <f>IFERROR(VLOOKUP(A236, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="str">
+        <f>IFERROR(VLOOKUP(A237, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="str">
+        <f>IFERROR(VLOOKUP(A238, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="str">
+        <f>IFERROR(VLOOKUP(A239, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="str">
+        <f>IFERROR(VLOOKUP(A240, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="str">
+        <f>IFERROR(VLOOKUP(A241, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="str">
+        <f>IFERROR(VLOOKUP(A242, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="str">
+        <f>IFERROR(VLOOKUP(A243, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="str">
+        <f>IFERROR(VLOOKUP(A244, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="str">
+        <f>IFERROR(VLOOKUP(A245, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="str">
+        <f>IFERROR(VLOOKUP(A246, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="str">
+        <f>IFERROR(VLOOKUP(A247, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="str">
+        <f>IFERROR(VLOOKUP(A248, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="str">
+        <f>IFERROR(VLOOKUP(A249, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="str">
+        <f>IFERROR(VLOOKUP(A250, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="str">
+        <f>IFERROR(VLOOKUP(A251, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="str">
+        <f>IFERROR(VLOOKUP(A252, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="str">
+        <f>IFERROR(VLOOKUP(A253, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="str">
+        <f>IFERROR(VLOOKUP(A254, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="str">
+        <f>IFERROR(VLOOKUP(A255, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="str">
+        <f>IFERROR(VLOOKUP(A256, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="str">
+        <f>IFERROR(VLOOKUP(A257, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="str">
+        <f>IFERROR(VLOOKUP(A258, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="str">
+        <f>IFERROR(VLOOKUP(A259, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="str">
+        <f>IFERROR(VLOOKUP(A260, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="str">
+        <f>IFERROR(VLOOKUP(A261, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="str">
+        <f>IFERROR(VLOOKUP(A262, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="str">
+        <f>IFERROR(VLOOKUP(A263, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="str">
+        <f>IFERROR(VLOOKUP(A264, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="str">
+        <f>IFERROR(VLOOKUP(A265, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="str">
+        <f>IFERROR(VLOOKUP(A266, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="str">
+        <f>IFERROR(VLOOKUP(A267, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="str">
+        <f>IFERROR(VLOOKUP(A268, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="str">
+        <f>IFERROR(VLOOKUP(A269, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="str">
+        <f>IFERROR(VLOOKUP(A270, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="str">
+        <f>IFERROR(VLOOKUP(A271, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="str">
+        <f>IFERROR(VLOOKUP(A272, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="str">
+        <f>IFERROR(VLOOKUP(A273, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="str">
+        <f>IFERROR(VLOOKUP(A274, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="str">
+        <f>IFERROR(VLOOKUP(A275, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="str">
+        <f>IFERROR(VLOOKUP(A276, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="str">
+        <f>IFERROR(VLOOKUP(A277, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" t="str">
+        <f>IFERROR(VLOOKUP(A278, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" t="str">
+        <f>IFERROR(VLOOKUP(A279, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="str">
+        <f>IFERROR(VLOOKUP(A280, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="str">
+        <f>IFERROR(VLOOKUP(A281, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="str">
+        <f>IFERROR(VLOOKUP(A282, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="str">
+        <f>IFERROR(VLOOKUP(A283, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="str">
+        <f>IFERROR(VLOOKUP(A284, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="str">
+        <f>IFERROR(VLOOKUP(A285, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="str">
+        <f>IFERROR(VLOOKUP(A286, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="str">
+        <f>IFERROR(VLOOKUP(A287, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" t="str">
+        <f>IFERROR(VLOOKUP(A288, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="str">
+        <f>IFERROR(VLOOKUP(A289, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" t="str">
+        <f>IFERROR(VLOOKUP(A290, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" t="str">
+        <f>IFERROR(VLOOKUP(A291, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="str">
+        <f>IFERROR(VLOOKUP(A292, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" t="str">
+        <f>IFERROR(VLOOKUP(A293, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" t="str">
+        <f>IFERROR(VLOOKUP(A294, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="str">
+        <f>IFERROR(VLOOKUP(A295, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" t="str">
+        <f>IFERROR(VLOOKUP(A296, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" t="str">
+        <f>IFERROR(VLOOKUP(A297, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" t="str">
+        <f>IFERROR(VLOOKUP(A298, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" t="str">
+        <f>IFERROR(VLOOKUP(A299, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" t="str">
+        <f>IFERROR(VLOOKUP(A300, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" t="str">
+        <f>IFERROR(VLOOKUP(A301, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" t="str">
+        <f>IFERROR(VLOOKUP(A302, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="str">
+        <f>IFERROR(VLOOKUP(A303, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="str">
+        <f>IFERROR(VLOOKUP(A304, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="str">
+        <f>IFERROR(VLOOKUP(A305, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="str">
+        <f>IFERROR(VLOOKUP(A306, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="str">
+        <f>IFERROR(VLOOKUP(A307, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="str">
+        <f>IFERROR(VLOOKUP(A308, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="str">
+        <f>IFERROR(VLOOKUP(A309, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="str">
+        <f>IFERROR(VLOOKUP(A310, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="str">
+        <f>IFERROR(VLOOKUP(A311, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="str">
+        <f>IFERROR(VLOOKUP(A312, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="str">
+        <f>IFERROR(VLOOKUP(A313, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="str">
+        <f>IFERROR(VLOOKUP(A314, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="str">
+        <f>IFERROR(VLOOKUP(A315, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="str">
+        <f>IFERROR(VLOOKUP(A316, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="str">
+        <f>IFERROR(VLOOKUP(A317, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" t="str">
+        <f>IFERROR(VLOOKUP(A318, Prefix!$A$1:$B$20, 2, FALSE), "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -619,28 +3586,51 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{9A320957-D5C1-4846-8271-0970E5EDB3EF}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{A1934743-7448-458D-90B2-A6C5B1F964CC}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{46BFC326-1622-4CF2-950C-3C9B9048DA44}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{86CF6624-F32C-4B2B-B756-7BC0AF984423}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{261C893B-598B-4290-87B6-73F1122E86C4}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{660A311B-E02E-49B7-8249-38FB5E92E395}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{C8EFC6B6-86EE-46F4-928E-EA8079BCB6F2}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{9BB8F2CA-D111-41FA-9426-C431EE5D331B}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{DF44B139-F96D-4406-846A-218AC6C0F7B6}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{A11C45E6-D998-4B07-AB63-2DF35822BDBC}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{4907DA3E-EE48-4F63-A660-458C7C30143E}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{7B5BC865-2BB8-47FA-AD64-ED47FF67333F}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{29700A07-5F68-4C06-A6B4-9615A8ED6398}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{6E7F11DD-F714-4BE2-BD74-E24A4968E434}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{216BD9B4-3F3A-4D24-908B-27DDFE1FB4D1}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{B24ED7BC-5B03-4C12-9631-8E1118811576}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{68482381-7587-4F98-B169-87A1D82926A9}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{CB488B2A-D270-4A80-BBE7-E834F08DD6DE}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{3F16C1DE-A51D-49B3-9B66-A114589B5D15}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{F6C1937D-A60E-4FB6-BE03-72A2324E06F7}"/>
+    <hyperlink ref="G23" r:id="rId21" xr:uid="{D8BCB345-4979-4EA6-A185-84FC37F40AC2}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{7B9622BB-BADD-44F9-9E31-7AF7C3D8C9F1}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{4385041B-B067-4EA0-81B1-C52FAB732B39}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{E0B5DDC3-0FAD-40A1-AB1E-11BA57A57F78}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{DAD3C781-A243-4225-90C1-3AE2FC67DC9B}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{A82E14BA-B99F-4EEB-9C88-269B30B3F8D0}"/>
+    <hyperlink ref="G29" r:id="rId27" xr:uid="{0FE1A34E-0530-42DD-B184-E80F336989E4}"/>
+    <hyperlink ref="G30" r:id="rId28" xr:uid="{D747D2E6-338D-4E87-A92A-E664FD315D14}"/>
+    <hyperlink ref="G31" r:id="rId29" xr:uid="{046FAAB6-0525-442C-AECE-600642F8C7EE}"/>
+    <hyperlink ref="G33" r:id="rId30" xr:uid="{BE45CB4D-5CB3-4706-B9F0-00B223842F0D}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{378380CD-5D93-4957-BC5D-571E0B3CE479}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98DF9E78-6883-4E5E-BF06-79248521C96B}">
-          <x14:formula1>
-            <xm:f>'Prefix (TH)'!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A150</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9181133F-8835-4E4F-914B-C453F0775A59}">
-          <x14:formula1>
-            <xm:f>'Prefix (EN)'!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B150</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{910725C4-F2CF-400A-97A7-A072ED9F73BE}">
           <x14:formula1>
             <xm:f>isActive!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0D0AB76-79C0-4BE4-A457-0B2BB167B5CA}">
+          <x14:formula1>
+            <xm:f>Prefix!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -650,30 +3640,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D39E4E-8D83-4D0D-923C-28B914393419}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -682,34 +3729,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D4D907-A57F-4E7A-82F8-B6F40929AEC6}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A0C47F-F043-4F56-A013-96376F9E1376}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -717,14 +3736,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="b">
         <v>0</v>
       </c>
